--- a/Results.xlsx
+++ b/Results.xlsx
@@ -132,8 +132,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -767,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,6 +914,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,6 +966,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1605,7 +1612,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,7 +1672,7 @@
       <c r="L4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="50" t="s">
         <v>29</v>
       </c>
       <c r="N4" s="18" t="s">
@@ -1699,7 +1706,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
-      <c r="M5" s="50"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1718,7 +1725,7 @@
       <c r="E6" s="34">
         <v>0.28514713878520098</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="58">
         <v>0.356335933117639</v>
       </c>
       <c r="G6" s="38">
@@ -1744,17 +1751,17 @@
         <f>B6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="52">
         <f>F6</f>
         <v>0.356335933117639</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="49">
         <f>I6-I7</f>
         <v>-4.813131357835998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="66" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="23">
@@ -1772,34 +1779,34 @@
       <c r="F7" s="6">
         <v>0.46212064629199301</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="59">
         <v>959.07500000000005</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="60">
         <f t="shared" ref="H7:H11" si="0">G7/60</f>
         <v>15.984583333333335</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="61">
         <f t="shared" ref="I7:I11" si="1">AVERAGE(B7,C7,D7,E7,F7)</f>
         <v>0.24032247227402018</v>
       </c>
-      <c r="J7" s="61">
+      <c r="J7" s="62">
         <f t="shared" ref="J7:J11" si="2">MEDIAN(B7,C7,D7,E7,F7)</f>
         <v>0.24288251987671999</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="61">
         <f>MAX(B7:F7)</f>
         <v>0.46212064629199301</v>
       </c>
-      <c r="L7" s="60">
+      <c r="L7" s="61">
         <f t="shared" ref="L7:L11" si="3">B7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="63">
         <f>F7</f>
         <v>0.46212064629199301</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="49">
         <f>I7-I7</f>
         <v>0</v>
       </c>
@@ -1846,11 +1853,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="53">
         <f t="shared" ref="M7:M11" si="5">F8</f>
         <v>0.45810193898250501</v>
       </c>
-      <c r="N8" s="48">
+      <c r="N8" s="49">
         <f>I8-I7</f>
         <v>-6.4880186689861841E-3</v>
       </c>
@@ -1897,11 +1904,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M9" s="53">
         <f t="shared" si="5"/>
         <v>0.48995540030255402</v>
       </c>
-      <c r="N9" s="48">
+      <c r="N9" s="49">
         <f>I9-I7</f>
         <v>7.5505061837124465E-3</v>
       </c>
@@ -1913,16 +1920,16 @@
       <c r="B10" s="23">
         <v>0</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="64">
         <v>0.175441500762991</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="64">
         <v>0.31156197813432701</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="64">
         <v>0.64245971362677601</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="65">
         <v>0.50641507149783904</v>
       </c>
       <c r="G10" s="39">
@@ -1948,11 +1955,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="53">
         <f t="shared" si="5"/>
         <v>0.50641507149783904</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="67">
         <f>I10-I7</f>
         <v>8.6853180530366419E-2</v>
       </c>
@@ -1964,13 +1971,13 @@
       <c r="B11" s="24">
         <v>0</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="56">
         <v>0.10737581061420499</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="56">
         <v>0.176213415340357</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="56">
         <v>0.27078389231191402</v>
       </c>
       <c r="F11" s="8">
@@ -1999,11 +2006,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="54">
         <f t="shared" si="5"/>
         <v>0.39813537085154699</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="49">
         <f>I11-I7</f>
         <v>-4.9820774450415606E-2</v>
       </c>
@@ -2045,19 +2052,19 @@
         <f>MIN(B6:B11)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="57">
         <f>MIN(C6:C11)</f>
         <v>0.10737581061420499</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="57">
         <f t="shared" ref="C14:F14" si="6">MIN(D6:D11)</f>
         <v>0.176213415340357</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="57">
         <f t="shared" si="6"/>
         <v>0.27078389231191402</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="57">
         <f>MIN(F6:F11)</f>
         <v>0.356335933117639</v>
       </c>
@@ -2099,19 +2106,19 @@
         <f>MAX(B6:B11)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="55">
         <f>MAX(C6:C11)</f>
         <v>0.175441500762991</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="55">
         <f t="shared" ref="C17:F17" si="7">MAX(D6:D11)</f>
         <v>0.31156197813432701</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="55">
         <f t="shared" si="7"/>
         <v>0.64245971362677601</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="55">
         <f>MAX(F6:F11)</f>
         <v>0.50641507149783904</v>
       </c>
